--- a/ripple/chess13a_analysis/085_ver5.xlsx
+++ b/ripple/chess13a_analysis/085_ver5.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="255" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="1"/>
+    <workbookView xWindow="705" yWindow="255" windowWidth="16380" windowHeight="8190" tabRatio="382"/>
   </bookViews>
   <sheets>
     <sheet name="everything" sheetId="1" r:id="rId1"/>
     <sheet name="cleaned up" sheetId="2" r:id="rId2"/>
     <sheet name="085_ver4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -548,42 +548,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5">
+    <row r="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.5">
+    <row r="2" spans="1:23">
       <c r="M2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
@@ -658,7 +658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.5">
+    <row r="4" spans="1:23">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.5">
+    <row r="5" spans="1:23">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -822,7 +822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.5">
+    <row r="6" spans="1:23">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.5">
+    <row r="7" spans="1:23">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -987,7 +987,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.5">
+    <row r="8" spans="1:23">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.5">
+    <row r="9" spans="1:23">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.5">
+    <row r="10" spans="1:23">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.5">
+    <row r="11" spans="1:23">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.5">
+    <row r="12" spans="1:23">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.5">
+    <row r="13" spans="1:23">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.5">
+    <row r="14" spans="1:23">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.5">
+    <row r="15" spans="1:23">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" spans="1:23" ht="13.5">
+    <row r="16" spans="1:23">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="1:24" ht="13.5">
+    <row r="17" spans="1:24">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.5">
+    <row r="18" spans="1:24">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.5">
+    <row r="19" spans="1:24">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.5">
+    <row r="20" spans="1:24">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="V20" s="10"/>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="1:24" ht="13.5">
+    <row r="21" spans="1:24">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.5">
+    <row r="22" spans="1:24">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.5">
+    <row r="23" spans="1:24">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.5">
+    <row r="24" spans="1:24">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="13.5">
+    <row r="25" spans="1:24">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="13.5">
+    <row r="26" spans="1:24">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="13.5">
+    <row r="27" spans="1:24">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="13.5">
+    <row r="28" spans="1:24">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="13.5">
+    <row r="29" spans="1:24">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="13.5">
+    <row r="30" spans="1:24">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5">
+    <row r="31" spans="1:24">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="13.5">
+    <row r="32" spans="1:24">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5">
+    <row r="33" spans="1:23">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5">
+    <row r="34" spans="1:23">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5">
+    <row r="35" spans="1:23">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5">
+    <row r="36" spans="1:23">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5">
+    <row r="37" spans="1:23">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5">
+    <row r="38" spans="1:23">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5">
+    <row r="39" spans="1:23">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5">
+    <row r="40" spans="1:23">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5">
+    <row r="41" spans="1:23">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5">
+    <row r="42" spans="1:23">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5">
+    <row r="43" spans="1:23">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5">
+    <row r="44" spans="1:23">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5">
+    <row r="45" spans="1:23">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5">
+    <row r="46" spans="1:23">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5">
+    <row r="47" spans="1:23">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5">
+    <row r="48" spans="1:23">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5">
+    <row r="49" spans="1:23">
       <c r="A49" s="3">
         <v>6</v>
       </c>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5">
+    <row r="50" spans="1:23">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5">
+    <row r="51" spans="1:23">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5">
+    <row r="52" spans="1:23">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5">
+    <row r="53" spans="1:23">
       <c r="A53" s="3">
         <v>7</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5">
+    <row r="54" spans="1:23">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5">
+    <row r="55" spans="1:23">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5">
+    <row r="56" spans="1:23">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5">
+    <row r="57" spans="1:23">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5">
+    <row r="58" spans="1:23">
       <c r="A58" s="3">
         <v>9</v>
       </c>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" ht="13.5">
+    <row r="59" spans="1:23">
       <c r="A59" s="3">
         <v>9</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" ht="13.5">
+    <row r="60" spans="1:23">
       <c r="A60" s="3">
         <v>9</v>
       </c>
@@ -4568,38 +4568,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5"/>
-    <col min="2" max="2" width="3.1640625"/>
-    <col min="3" max="3" width="6.1640625"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125"/>
+    <col min="2" max="2" width="3.140625"/>
+    <col min="3" max="3" width="6.140625"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.5" customWidth="1"/>
-    <col min="23" max="26" width="11.5"/>
-    <col min="29" max="34" width="11.5"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="1029" width="11.5"/>
+    <col min="14" max="14" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="26" width="11.42578125"/>
+    <col min="29" max="34" width="11.42578125"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="1029" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5">
+    <row r="1" spans="1:35">
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -4610,7 +4610,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="13.5">
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="13.5">
+    <row r="3" spans="1:35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="13.5">
+    <row r="4" spans="1:35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="13.5">
+    <row r="5" spans="1:35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="13.5">
+    <row r="6" spans="1:35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>3.9321700168311624</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="13.5">
+    <row r="7" spans="1:35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="13.5">
+    <row r="8" spans="1:35">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="13.5">
+    <row r="9" spans="1:35">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="13.5">
+    <row r="10" spans="1:35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="13.5">
+    <row r="11" spans="1:35">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="13.5">
+    <row r="12" spans="1:35">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="13.5">
+    <row r="13" spans="1:35">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="13.5">
+    <row r="14" spans="1:35">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="13.5">
+    <row r="15" spans="1:35">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="13.5">
+    <row r="16" spans="1:35">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="13.5">
+    <row r="17" spans="1:35">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="13.5">
+    <row r="18" spans="1:35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="13.5">
+    <row r="19" spans="1:35">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="13.5">
+    <row r="20" spans="1:35">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>7.1034776520217076</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="13.5">
+    <row r="21" spans="1:35">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="13.5">
+    <row r="22" spans="1:35">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="13.5">
+    <row r="23" spans="1:35">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="13.5">
+    <row r="24" spans="1:35">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="13.5">
+    <row r="25" spans="1:35">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="13.5">
+    <row r="26" spans="1:35">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="13.5">
+    <row r="27" spans="1:35">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="13.5">
+    <row r="28" spans="1:35">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="13.5">
+    <row r="29" spans="1:35">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="13.5">
+    <row r="30" spans="1:35">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="13.5">
+    <row r="31" spans="1:35">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="13.5">
+    <row r="32" spans="1:35">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>2.0695153211266684</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="13.5">
+    <row r="33" spans="1:35">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="13.5">
+    <row r="34" spans="1:35">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="13.5">
+    <row r="35" spans="1:35">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="13.5">
+    <row r="36" spans="1:35">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="13.5">
+    <row r="37" spans="1:35">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="13.5">
+    <row r="38" spans="1:35">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="13.5">
+    <row r="39" spans="1:35">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="13.5">
+    <row r="40" spans="1:35">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="13.5">
+    <row r="41" spans="1:35">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="13.5">
+    <row r="42" spans="1:35">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="13.5">
+    <row r="43" spans="1:35">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="13.5">
+    <row r="44" spans="1:35">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="13.5">
+    <row r="45" spans="1:35">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="13.5">
+    <row r="46" spans="1:35">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="13.5">
+    <row r="47" spans="1:35">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0.9276269427443542</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="13.5">
+    <row r="48" spans="1:35">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="13.5">
+    <row r="49" spans="1:35">
       <c r="A49" s="3">
         <v>6</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="13.5">
+    <row r="50" spans="1:35">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="13.5">
+    <row r="51" spans="1:35">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="13.5">
+    <row r="52" spans="1:35">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="13.5">
+    <row r="53" spans="1:35">
       <c r="A53" s="3">
         <v>7</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="13.5">
+    <row r="54" spans="1:35">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="13.5">
+    <row r="55" spans="1:35">
       <c r="A55" s="3">
         <v>8</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>0.86455446342818365</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="13.5">
+    <row r="56" spans="1:35">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="13.5">
+    <row r="57" spans="1:35">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="13.5">
+    <row r="58" spans="1:35">
       <c r="A58" s="3">
         <v>9</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>3.317173396577485</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="13.5">
+    <row r="59" spans="1:35">
       <c r="A59" s="3">
         <v>9</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="13.5">
+    <row r="60" spans="1:35">
       <c r="A60" s="13">
         <v>9</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>1.6585866982887425</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="13.5">
+    <row r="61" spans="1:35">
       <c r="A61" s="13">
         <v>9</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="13.5">
+    <row r="62" spans="1:35">
       <c r="J62" s="8"/>
     </row>
   </sheetData>
@@ -10173,14 +10173,14 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.5" style="3"/>
-    <col min="1026" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.42578125" style="3"/>
+    <col min="1026" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
